--- a/biology/Botanique/Butomaceae/Butomaceae.xlsx
+++ b/biology/Botanique/Butomaceae/Butomaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Butomacées est constituée de plantes monocotylédones. Le seul représentant est le jonc fleuri (Butomus umbellatus L.) dont les rhizomes sont comestibles, une fois cuits.
 Ce sont des plantes herbacées, pérennes, rhizomateuses, aquatiques, des régions tempérées froides d'Europe et d'Asie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre et de la famille dérive du bas latin butomos, -i qui est lui-même la transcription du mot grec βούτομος (de bous, « bœuf » et temno, « couper ») qui signifie littéralement, d'après Anatole Bailly, « qui coupe la langue des bœufs » en raison du caractère coupant des feuilles de ce jonc fleuri[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre et de la famille dérive du bas latin butomos, -i qui est lui-même la transcription du mot grec βούτομος (de bous, « bœuf » et temno, « couper ») qui signifie littéralement, d'après Anatole Bailly, « qui coupe la langue des bœufs » en raison du caractère coupant des feuilles de ce jonc fleuri.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010)[2], Angiosperm Phylogeny Website                        (19 mai 2010)[3], NCBI  (14 avr. 2010)[4], DELTA Angio           (14 avr. 2010)[5] et ITIS      (14 avr. 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010), Angiosperm Phylogeny Website                        (19 mai 2010), NCBI  (14 avr. 2010), DELTA Angio           (14 avr. 2010) et ITIS      (14 avr. 2010) :
 genre Butomus L. (1753)</t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 avr. 2010) :
 genre Butomus L. (1753)
 Butomus junceus  Turcz. (1854)
 Butomus umbellatus  L. (1753)
-Selon NCBI  (14 avr. 2010)[4] :
+Selon NCBI  (14 avr. 2010) :
 genre Butomus
 Butomus umbellatus</t>
         </is>
